--- a/medicine/Sexualité et sexologie/Cinquante_Nuances_plus_claires_(film)/Cinquante_Nuances_plus_claires_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Cinquante_Nuances_plus_claires_(film)/Cinquante_Nuances_plus_claires_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cinquante Nuances plus claires (Fifty Shades Freed) est un film dramatico-érotico-romantique américano-chinois réalisé par James Foley, sorti en 2018[1].
-L'association catholique Promouvoir a obtenu qu'il soit interdit aux moins de 12 ans en France[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cinquante Nuances plus claires (Fifty Shades Freed) est un film dramatico-érotico-romantique américano-chinois réalisé par James Foley, sorti en 2018.
+L'association catholique Promouvoir a obtenu qu'il soit interdit aux moins de 12 ans en France.
 Il s'agit de l'adaptation du bestseller d'E. L. James, troisième et dernier tome de la trilogie Fifty Shades.
 Pensant avoir laissé derrière eux les ombres du passé, les jeunes mariés Christian et Ana profitent pleinement de leur relation tortueuse et partagent une vie de luxe. Mais alors qu’Anastasia commence tout juste à s’adapter à son nouveau rôle de Madame Grey et que Christian s’ouvre finalement à elle, de nouvelles menaces viennent mettre en péril leur vie commune avant même qu’elle n’ait débuté.
 </t>
@@ -516,8 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présentation générale
-Christian et Ana se marient et partent en lune de miel autour du monde. Alors qu'ils sont en France, ils doivent interrompre leur séjour pour retourner à Seattle après avoir eu connaissance d'un raid au siège social de Christian. Certains fichiers informatiques ont été volés, et les bandes de caméras de sécurité ont identifié le vandale : Jack Hyde, l'ancien patron d'Ana qui a été renvoyé pour harcèlement sexuel. Pendant ce temps, Ana est présentée à sa nouvelle équipe de sécurité.
+          <t>Présentation générale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christian et Ana se marient et partent en lune de miel autour du monde. Alors qu'ils sont en France, ils doivent interrompre leur séjour pour retourner à Seattle après avoir eu connaissance d'un raid au siège social de Christian. Certains fichiers informatiques ont été volés, et les bandes de caméras de sécurité ont identifié le vandale : Jack Hyde, l'ancien patron d'Ana qui a été renvoyé pour harcèlement sexuel. Pendant ce temps, Ana est présentée à sa nouvelle équipe de sécurité.
 Christian surprend Ana en achetant une nouvelle maison pour eux. Il a embauché l'architecte Gia Matteo pour la reconstruire, mais Ana préfère rénover la vieille demeure et garder son aspect authentique. D'autre part, voyant Gia flirter avec Christian en sa présence, Ana la menace en privé de la congédier si elle continue d'agir ainsi envers son mari.
 Lorsque Christian part ensuite en voyage d'affaire, Ana ignore ses souhaits de rester à la maison et sort avec sa copine Kate Kavanagh. Kate, qui fréquent le jeune frère de Christian, Eliott, confie à Ana que sa relation avec Eliott pourrait prendre fin : Eliott travaille en étroite collaboration avec Gia, l'architecte, et Kate reste méfiante à l'égard de leur relation. Quand Ana rentre à la maison, elle est surprise par Jack, qui tente de la kidnapper mais l'équipe de sécurité d'Ana se précipite sur les cris de celle-ci et Jack est arrêté.
 Après une discussion avec Christian sur elle qui ne respecte pas ses souhaits qu'elle reste à la maison, Ana accuse ce dernier d'être trop contrôlant et possessif, et demande à avoir plus de liberté. Christian surprend Ana en lui offrant un voyage avec Kate, Mia, Eliott et José. Pendant ce temps, Jack est jugé, la caution pour sa libération est fixée à un demi-million de dollars.
@@ -557,7 +574,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Fifty Shades Freed
@@ -572,29 +591,29 @@
 Son : Jason Chiodo, Bill Meadows, Frank A. Montaño, Jon Taylor
 Montage : Richard Francis-Bruce, David S. Clark et Debra Neil-Fisher
 Production : Dana Brunetti, Michael De Luca, E. L. James et Marcus Viscidi
-Sociétés de production[3] :
+Sociétés de production :
 États-Unis : Universal Pictures
 Chine : Perfect World Pictures
 Sociétés de distribution :
 États-Unis : Universal Pictures
 France : Universal Pictures International
-Budget : 55 millions de $[4]
+Budget : 55 millions de $
 Pays d'origine :  États-Unis,  Chine
 Langue originale : anglais
-Format[5] : couleur - D-Cinema - 2,39:1 (Cinémascope) (Panavision)
+Format : couleur - D-Cinema - 2,39:1 (Cinémascope) (Panavision)
 son Dolby Surround 7.1 | DTS (DTS: X) | Dolby Atmos | Dolby Digital | Auro 11.1
 Genre : drame, romance, thriller, érotique
 Durée : 105 minutes (Version cinéma) ; 110 minutes (version non censurée)
-Dates de sortie[6] :
-France, Belgique, Suisse romande : 7 février 2018[7],[8]
-États-Unis, Québec : 9 février 2018[9]
-Classification[10] :
+Dates de sortie :
+France, Belgique, Suisse romande : 7 février 2018,
+États-Unis, Québec : 9 février 2018
+Classification :
  États-Unis : Interdit aux moins de 17 ans (certificat #51238) (R – Restricted) [Note 1].
  Chine : Pas de système.
- France : Tous publics avec avertissement (visa d'exploitation no 147936 délivré le 2 octobre 2018)[2],[11],[Note 2].
- Belgique : Interdit aux moins de 16 ans (KNT/ENA : Kinderen Niet Toegelaten /Enfants Non Admis)[12],[Note 3].
+ France : Tous publics avec avertissement (visa d'exploitation no 147936 délivré le 2 octobre 2018)[Note 2].
+ Belgique : Interdit aux moins de 16 ans (KNT/ENA : Kinderen Niet Toegelaten /Enfants Non Admis),[Note 3].
  Québec : 16 ans et plus (16+ / 16 years and over).
- Suisse romande : Interdit aux moins de 16 ans[13].</t>
+ Suisse romande : Interdit aux moins de 16 ans.</t>
         </is>
       </c>
     </row>
@@ -622,7 +641,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jamie Dornan (VF : Valentin Merlet ; VQ : Éric Bruneau) : Christian Grey
@@ -676,14 +697,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Développement
-Attribution des rôles
-Tournage</t>
+          <t>Bande originale</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fifty Shades Freed: Original Motion Picture Soundtrack est la bande originale du film. Il s'agit d'une compilation des chansons entendues dans le film, interprétées par divers artistes comme Rita Ora &amp; Liam Payne et Hailee Steinfeld.
+</t>
         </is>
       </c>
     </row>
@@ -708,12 +730,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bande originale</t>
+          <t>Accueil</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fifty Shades Freed: Original Motion Picture Soundtrack est la bande originale du film. Il s'agit d'une compilation des chansons entendues dans le film, interprétées par divers artistes comme Rita Ora &amp; Liam Payne et Hailee Steinfeld.
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jour de sa sortie en France, le film a réuni 295 516 spectateurs avec une moyenne de 422 spectateurs par cinéma. Il s'agit du deuxième meilleur démarrage de la saga derrière Cinquante nuances de Grey (363 075). Lors de sa première semaine, le film réussi à s'emparer de la première place du box-office en réunissant 1 257 650 spectateurs. Le film de James Foley rivalise directement avec Les Tuche 3, puisqu'il est suivi de très près par ce dernier avec seulement 3 649 spectateurs de différence. Lors de sa seconde semaine d'exploitation, le film perd deux places dans le classement hebdomadaire mais attire 760 074 spectateurs supplémentaires et dépasse le seuil des 2 millions d'entrées.
+Aux États-Unis, le film s'empare de la première place du box-office lors de son premier weekend d'exploitation en rapportant 38 560 195 $ de recettes. Cependant, Cinquante Nuances plus claires réalise le pire premier weekend de la trilogie en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -739,16 +768,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Accueil</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Promotion
-Accueil critique
-Box-office
-Le jour de sa sortie en France, le film a réuni 295 516 spectateurs avec une moyenne de 422 spectateurs par cinéma[16]. Il s'agit du deuxième meilleur démarrage de la saga derrière Cinquante nuances de Grey (363 075)[16]. Lors de sa première semaine, le film réussi à s'emparer de la première place du box-office en réunissant 1 257 650 spectateurs[17]. Le film de James Foley rivalise directement avec Les Tuche 3, puisqu'il est suivi de très près par ce dernier avec seulement 3 649 spectateurs de différence[17]. Lors de sa seconde semaine d'exploitation, le film perd deux places dans le classement hebdomadaire mais attire 760 074 spectateurs supplémentaires et dépasse le seuil des 2 millions d'entrées[18].
-Aux États-Unis, le film s'empare de la première place du box-office lors de son premier weekend d'exploitation en rapportant 38 560 195 $ de recettes[19]. Cependant, Cinquante Nuances plus claires réalise le pire premier weekend de la trilogie en Amérique du Nord[20].
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 2018 et 2019, Cinquante Nuances plus claires a été sélectionné 16 fois dans diverses catégories et a remporté 6 récompenses,.
 </t>
         </is>
       </c>
@@ -774,54 +801,27 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Analyse</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Entre 2018 et 2019, Cinquante Nuances plus claires a été sélectionné 16 fois dans diverses catégories et a remporté 6 récompenses[21],[22].
-Distinctions 2018
-Distinctions 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cinquante_Nuances_plus_claires_(film)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cinquante_Nuances_plus_claires_(film)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Analyse</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Différences principales avec le roman
-Dans le livre, Anastasia se dispute avec Christian lors de leur lune de miel après qu'il lui a fait des suçons sans son consentement[23].
-Lorsqu'Anastasia reconnaît Jack Hyde sur la vidéo, Christian et elle sont encore sur le yacht en lune de miel. Dans, le roman, cette scène a lieu au bureau de Christian de retour aux États-Unis[24].
-Dans le roman, Mme Jones et Taylor sont intimes mais le film ne fait pas allusion à cette relation[25].
-Dans le film, la maison achetée est celle aperçue à bord du voilier dans le second film. Dans le roman, il s'agit d'une autre bâtisse que Christian décide d'acheter dès le deuxième tome[26].
-Le personnage d'Ethan (le frère de Kate) n'étant pas présent dans le film, c'est José qui le remplace pour l'escapade à Aspen[27].
-C'est à Aspen également qu'Anastasia apprend de Christian que son frère Elliot a eu une relation avec Gia Matteo. Dans le roman, c'est Kate qui le lui dit lors de leur sortie au bar[28].
-C'est Ryan, un des gardes du corps d'Anastasia (non présent dans le film) qui, dans le roman, neutralise Jack Hyde dans l'appartement[29], et non le duo Sawyer-Prescott.
-Dans le roman, Leila refait son apparition ; son personnage n'est qu'évoqué dans le film[30].
-Dans le roman, José ainsi que son père M. Rodriguez (absent du film) et Ray sont gravement blessés dans un accident de voiture[31].
-Quand Anastasia se réveille à l'hôpital, Grace est présente avec Christian à son chevet. Dans le roman, c'est Carrick qui est présent avec son fils[32].</t>
+          <t>Différences principales avec le roman</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dans le livre, Anastasia se dispute avec Christian lors de leur lune de miel après qu'il lui a fait des suçons sans son consentement.
+Lorsqu'Anastasia reconnaît Jack Hyde sur la vidéo, Christian et elle sont encore sur le yacht en lune de miel. Dans, le roman, cette scène a lieu au bureau de Christian de retour aux États-Unis.
+Dans le roman, Mme Jones et Taylor sont intimes mais le film ne fait pas allusion à cette relation.
+Dans le film, la maison achetée est celle aperçue à bord du voilier dans le second film. Dans le roman, il s'agit d'une autre bâtisse que Christian décide d'acheter dès le deuxième tome.
+Le personnage d'Ethan (le frère de Kate) n'étant pas présent dans le film, c'est José qui le remplace pour l'escapade à Aspen.
+C'est à Aspen également qu'Anastasia apprend de Christian que son frère Elliot a eu une relation avec Gia Matteo. Dans le roman, c'est Kate qui le lui dit lors de leur sortie au bar.
+C'est Ryan, un des gardes du corps d'Anastasia (non présent dans le film) qui, dans le roman, neutralise Jack Hyde dans l'appartement, et non le duo Sawyer-Prescott.
+Dans le roman, Leila refait son apparition ; son personnage n'est qu'évoqué dans le film.
+Dans le roman, José ainsi que son père M. Rodriguez (absent du film) et Ray sont gravement blessés dans un accident de voiture.
+Quand Anastasia se réveille à l'hôpital, Grace est présente avec Christian à son chevet. Dans le roman, c'est Carrick qui est présent avec son fils.</t>
         </is>
       </c>
     </row>
